--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -431,6 +431,14 @@
       </c>
       <c r="B5">
         <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -439,6 +439,14 @@
       </c>
       <c r="B6">
         <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
